--- a/CNN/lib/AmexExcel.xlsx
+++ b/CNN/lib/AmexExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A533540-2A2E-4375-A0F5-27ED5935539C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193E261-E6CE-41A9-9CCF-AD5599F2E8C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>NavItem</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>Home Loan</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>//*[@id="amex-header"]/div/div[2]/div[1]/div[2]/div/div[6]/div/span[1]/label[2]/span</t>
+  </si>
+  <si>
+    <t>&lt;span class="lass"&gt;&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -637,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5950201-C1FD-40FE-9548-1BC8F47EF8E2}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +769,9 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,10 +789,23 @@
       <c r="A20" t="s">
         <v>79</v>
       </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
